--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1367.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1367.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.209713169869859</v>
+        <v>1.267898082733154</v>
       </c>
       <c r="B1">
-        <v>2.581385630353758</v>
+        <v>2.809709072113037</v>
       </c>
       <c r="C1">
-        <v>3.710835455459314</v>
+        <v>8.678452491760254</v>
       </c>
       <c r="D1">
-        <v>2.937823089117117</v>
+        <v>2.01676082611084</v>
       </c>
       <c r="E1">
-        <v>1.131517055143683</v>
+        <v>1.128594517707825</v>
       </c>
     </row>
   </sheetData>
